--- a/mbs-perturbation/chatty/svm/smote/chatty-svm-sigmoid-smote-results.xlsx
+++ b/mbs-perturbation/chatty/svm/smote/chatty-svm-sigmoid-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7423312883435583</v>
+        <v>0.3472803347280335</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.3593073593073593</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6142131979695432</v>
+        <v>0.3531914893617021</v>
       </c>
       <c r="E2" t="n">
-        <v>0.742659514398645</v>
+        <v>0.2812158855637116</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7769784172661871</v>
+        <v>0.9425837320574163</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4695652173913044</v>
+        <v>0.8565217391304348</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5853658536585367</v>
+        <v>0.8974943052391801</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8196875588179936</v>
+        <v>0.9660079051383399</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4904942965779467</v>
+        <v>0.8804780876494024</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5608695652173913</v>
+        <v>0.9608695652173913</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5233265720081135</v>
+        <v>0.9189189189189189</v>
       </c>
       <c r="E4" t="n">
-        <v>0.683553875236295</v>
+        <v>0.9061436672967863</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5650224215246636</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5478260869565217</v>
+        <v>0.9391304347826087</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5562913907284769</v>
+        <v>0.8744939271255062</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7171077504725897</v>
+        <v>0.9116257088846882</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4486215538847118</v>
+        <v>0.39209726443769</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7782608695652173</v>
+        <v>0.5608695652173913</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5691573926868044</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5028733459357276</v>
+        <v>0.2482230623818525</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6046895955194135</v>
+        <v>0.6761242474108722</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5760662525879917</v>
+        <v>0.7353397327310371</v>
       </c>
       <c r="D7" t="n">
-        <v>0.569670881410295</v>
+        <v>0.7011274204367538</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6931764089722502</v>
+        <v>0.6626432458530757</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chatty/svm/smote/chatty-svm-sigmoid-smote-results.xlsx
+++ b/mbs-perturbation/chatty/svm/smote/chatty-svm-sigmoid-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3472803347280335</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3593073593073593</v>
+        <v>0.7971014492753623</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3531914893617021</v>
+        <v>0.6991525423728813</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2812158855637116</v>
+        <v>0.7229538275733928</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9425837320574163</v>
+        <v>0.8651162790697674</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8565217391304348</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8974943052391801</v>
+        <v>0.8815165876777251</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9660079051383399</v>
+        <v>0.8915830546265328</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8804780876494024</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9608695652173913</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9189189189189189</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9061436672967863</v>
+        <v>0.8735367892976589</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.569023569023569</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9391304347826087</v>
+        <v>0.8125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8744939271255062</v>
+        <v>0.6693069306930693</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9116257088846882</v>
+        <v>0.6801607209215905</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.39209726443769</v>
+        <v>0.8994974874371859</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5608695652173913</v>
+        <v>0.8647342995169082</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.8817733990147784</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2482230623818525</v>
+        <v>0.8860883567877896</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6761242474108722</v>
+        <v>0.7555414832786113</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7353397327310371</v>
+        <v>0.8515003716090673</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7011274204367538</v>
+        <v>0.7967202623220613</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6626432458530757</v>
+        <v>0.810864549841393</v>
       </c>
     </row>
   </sheetData>
